--- a/Data/Contact Angle Measurements .xlsx
+++ b/Data/Contact Angle Measurements .xlsx
@@ -4383,6 +4383,12 @@
       <c r="D159" s="1" t="s">
         <v>174</v>
       </c>
+      <c r="E159" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F159" s="4">
+        <v>51.45</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="s">
@@ -4397,6 +4403,12 @@
       <c r="D160" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="E160" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F160" s="4">
+        <v>65.05</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="s">
@@ -4411,6 +4423,12 @@
       <c r="D161" s="1" t="s">
         <v>176</v>
       </c>
+      <c r="E161" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F161" s="4">
+        <v>52.97</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="s">
@@ -4425,6 +4443,12 @@
       <c r="D162" s="1" t="s">
         <v>178</v>
       </c>
+      <c r="E162" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F162" s="4">
+        <v>60.79</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="s">
@@ -4439,6 +4463,12 @@
       <c r="D163" s="1" t="s">
         <v>179</v>
       </c>
+      <c r="E163" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F163" s="4">
+        <v>60.92</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="s">
@@ -4453,6 +4483,12 @@
       <c r="D164" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="E164" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F164" s="4">
+        <v>57.62</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
@@ -4467,6 +4503,12 @@
       <c r="D165" s="1" t="s">
         <v>181</v>
       </c>
+      <c r="E165" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F165" s="4">
+        <v>56.78</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
@@ -4481,6 +4523,12 @@
       <c r="D166" s="1" t="s">
         <v>182</v>
       </c>
+      <c r="E166" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F166" s="4">
+        <v>53.89</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
@@ -4495,6 +4543,12 @@
       <c r="D167" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E167" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F167" s="4">
+        <v>62.45</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
@@ -4509,6 +4563,12 @@
       <c r="D168" s="1" t="s">
         <v>184</v>
       </c>
+      <c r="E168" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F168" s="4">
+        <v>47.76</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
@@ -4523,6 +4583,12 @@
       <c r="D169" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="E169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F169" s="4">
+        <v>40.92</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
@@ -4537,6 +4603,12 @@
       <c r="D170" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="E170" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F170" s="4">
+        <v>58.88</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
@@ -4551,6 +4623,12 @@
       <c r="D171" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="E171" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F171" s="4">
+        <v>60.4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
@@ -4565,6 +4643,12 @@
       <c r="D172" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="E172" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F172" s="4">
+        <v>61.82</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
@@ -4579,6 +4663,12 @@
       <c r="D173" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="E173" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F173" s="4">
+        <v>60.47</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
@@ -4593,6 +4683,12 @@
       <c r="D174" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="E174" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F174" s="4">
+        <v>54.57</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
@@ -4607,6 +4703,12 @@
       <c r="D175" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="E175" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F175" s="4">
+        <v>40.32</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
@@ -4621,6 +4723,12 @@
       <c r="D176" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="E176" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F176" s="4">
+        <v>52.76</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
@@ -4635,6 +4743,12 @@
       <c r="D177" s="1" t="s">
         <v>193</v>
       </c>
+      <c r="E177" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F177" s="4">
+        <v>57.58</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
@@ -4649,6 +4763,12 @@
       <c r="D178" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="E178" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F178" s="4">
+        <v>64.13</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
@@ -4663,6 +4783,12 @@
       <c r="D179" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="E179" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F179" s="4">
+        <v>56.99</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
@@ -4677,6 +4803,12 @@
       <c r="D180" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E180" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F180" s="4">
+        <v>61.13</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
@@ -4691,6 +4823,12 @@
       <c r="D181" s="1" t="s">
         <v>197</v>
       </c>
+      <c r="E181" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F181" s="4">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
@@ -4705,6 +4843,12 @@
       <c r="D182" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="E182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F182" s="4">
+        <v>70.74</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
@@ -4719,6 +4863,12 @@
       <c r="D183" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="E183" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F183" s="4">
+        <v>51.14</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
@@ -4733,6 +4883,12 @@
       <c r="D184" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="E184" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F184" s="4">
+        <v>53.79</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
@@ -4747,6 +4903,12 @@
       <c r="D185" s="1" t="s">
         <v>201</v>
       </c>
+      <c r="E185" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F185" s="4">
+        <v>67.69</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
@@ -4761,6 +4923,12 @@
       <c r="D186" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="E186" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F186" s="4">
+        <v>65.2</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
@@ -4775,6 +4943,12 @@
       <c r="D187" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="E187" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F187" s="4">
+        <v>64.39</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
@@ -4789,6 +4963,12 @@
       <c r="D188" s="1" t="s">
         <v>204</v>
       </c>
+      <c r="E188" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F188" s="4">
+        <v>70.71</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
@@ -4803,6 +4983,12 @@
       <c r="D189" s="1" t="s">
         <v>205</v>
       </c>
+      <c r="E189" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F189" s="4">
+        <v>47.67</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
@@ -4817,6 +5003,12 @@
       <c r="D190" s="1" t="s">
         <v>206</v>
       </c>
+      <c r="E190" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F190" s="4">
+        <v>61.9</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
@@ -4831,6 +5023,12 @@
       <c r="D191" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="E191" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F191" s="4">
+        <v>62.89</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
@@ -4845,6 +5043,12 @@
       <c r="D192" s="1" t="s">
         <v>208</v>
       </c>
+      <c r="E192" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F192" s="4">
+        <v>59.17</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="s">
@@ -4859,6 +5063,12 @@
       <c r="D193" s="1" t="s">
         <v>209</v>
       </c>
+      <c r="E193" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F193" s="4">
+        <v>61.3</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="s">
@@ -4873,6 +5083,12 @@
       <c r="D194" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="E194" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F194" s="4">
+        <v>59.61</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="s">
@@ -4887,6 +5103,12 @@
       <c r="D195" s="1" t="s">
         <v>211</v>
       </c>
+      <c r="E195" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F195" s="4">
+        <v>62.5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="s">
@@ -4901,6 +5123,12 @@
       <c r="D196" s="1" t="s">
         <v>212</v>
       </c>
+      <c r="E196" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="F196" s="4">
+        <v>65.64</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="s">
@@ -4915,6 +5143,12 @@
       <c r="D197" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="E197" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F197" s="4">
+        <v>66.12</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="s">
@@ -4929,6 +5163,12 @@
       <c r="D198" s="1" t="s">
         <v>214</v>
       </c>
+      <c r="E198" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F198" s="4">
+        <v>68.43</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="s">
@@ -4943,6 +5183,12 @@
       <c r="D199" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="E199" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F199" s="4">
+        <v>58.95</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="s">
@@ -4957,6 +5203,12 @@
       <c r="D200" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="E200" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F200" s="4">
+        <v>64.4</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="s">
@@ -4971,6 +5223,12 @@
       <c r="D201" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="E201" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F201" s="4">
+        <v>58.62</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="s">
@@ -4985,6 +5243,12 @@
       <c r="D202" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="E202" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F202" s="4">
+        <v>61.56</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="s">
@@ -4999,6 +5263,12 @@
       <c r="D203" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="E203" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F203" s="4">
+        <v>61.47</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="s">
@@ -5013,6 +5283,12 @@
       <c r="D204" s="1" t="s">
         <v>220</v>
       </c>
+      <c r="E204" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F204" s="4">
+        <v>57.11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="s">
@@ -5027,6 +5303,12 @@
       <c r="D205" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="E205" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F205" s="4">
+        <v>59.25</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="s">
@@ -5041,6 +5323,12 @@
       <c r="D206" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="E206" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F206" s="4">
+        <v>57.59</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="s">
@@ -5055,6 +5343,12 @@
       <c r="D207" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="E207" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F207" s="4">
+        <v>53.59</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="s">
@@ -5069,6 +5363,12 @@
       <c r="D208" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="E208" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F208" s="4">
+        <v>64.75</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="s">
@@ -5083,6 +5383,12 @@
       <c r="D209" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="E209" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F209" s="4">
+        <v>53.39</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="s">
@@ -5097,6 +5403,12 @@
       <c r="D210" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="E210" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F210" s="4">
+        <v>64.19</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="s">
@@ -5111,6 +5423,12 @@
       <c r="D211" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="E211" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F211" s="4">
+        <v>63.97</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="s">
@@ -5125,6 +5443,12 @@
       <c r="D212" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="E212" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F212" s="4">
+        <v>60.65</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="s">
@@ -5139,6 +5463,12 @@
       <c r="D213" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="E213" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F213" s="4">
+        <v>58.68</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="s">
@@ -5153,6 +5483,12 @@
       <c r="D214" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="E214" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F214" s="4">
+        <v>58.61</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="s">
@@ -5167,6 +5503,12 @@
       <c r="D215" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="E215" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F215" s="4">
+        <v>53.31</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="s">
@@ -5181,6 +5523,12 @@
       <c r="D216" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="E216" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F216" s="4">
+        <v>65.28</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="s">
@@ -5195,6 +5543,12 @@
       <c r="D217" s="1" t="s">
         <v>233</v>
       </c>
+      <c r="E217" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F217" s="4">
+        <v>60.51</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="s">
@@ -5209,6 +5563,12 @@
       <c r="D218" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="E218" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F218" s="4">
+        <v>62.15</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="s">
@@ -5223,6 +5583,12 @@
       <c r="D219" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="E219" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F219" s="4">
+        <v>57.66</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="s">
@@ -5237,6 +5603,12 @@
       <c r="D220" s="1" t="s">
         <v>236</v>
       </c>
+      <c r="E220" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F220" s="4">
+        <v>70.9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="s">
@@ -5251,6 +5623,12 @@
       <c r="D221" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="E221" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F221" s="4">
+        <v>62.73</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="s">
@@ -5265,6 +5643,12 @@
       <c r="D222" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="E222" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F222" s="4">
+        <v>62.39</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="s">
@@ -5279,6 +5663,12 @@
       <c r="D223" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="E223" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F223" s="4">
+        <v>69.67</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="s">
@@ -5293,6 +5683,12 @@
       <c r="D224" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="E224" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F224" s="4">
+        <v>59.34</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="s">
@@ -5307,6 +5703,12 @@
       <c r="D225" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="E225" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F225" s="4">
+        <v>68.0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="s">
@@ -5321,6 +5723,12 @@
       <c r="D226" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E226" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F226" s="4">
+        <v>68.06</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="s">
@@ -5335,6 +5743,12 @@
       <c r="D227" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="E227" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F227" s="4">
+        <v>76.21</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="s">
@@ -5348,6 +5762,12 @@
       </c>
       <c r="D228" s="1" t="s">
         <v>244</v>
+      </c>
+      <c r="E228" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F228" s="4">
+        <v>58.58</v>
       </c>
     </row>
     <row r="229">
